--- a/medicine/Enfance/Volha_Harbunova/Volha_Harbunova.xlsx
+++ b/medicine/Enfance/Volha_Harbunova/Volha_Harbunova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volha Harbunova est une défenseuse des droits humains biélorusse qui a consacré sa vie à la défense des droits des femmes, des enfants, ceux de la communauté LGBTQI+ et d'autres groupes marginalisés en Biélorussie[1]. À la suite des élections frauduleuses de 2020 en Biélorussie, Volha Harbunova est emprisonnée pour avoir organisé des marches pour les droits des femmes[1]. Elle fuit la Biélorussie en 2022, avant sa nomination au Cabinet de transition uni (en) biélorusse, le 26 décembre 2022 en tant que représentante pour les questions sociales.
-Le 4 mars 2023 elle se voit décerner le prix international de la femme de courage[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volha Harbunova est une défenseuse des droits humains biélorusse qui a consacré sa vie à la défense des droits des femmes, des enfants, ceux de la communauté LGBTQI+ et d'autres groupes marginalisés en Biélorussie. À la suite des élections frauduleuses de 2020 en Biélorussie, Volha Harbunova est emprisonnée pour avoir organisé des marches pour les droits des femmes. Elle fuit la Biélorussie en 2022, avant sa nomination au Cabinet de transition uni (en) biélorusse, le 26 décembre 2022 en tant que représentante pour les questions sociales.
+Le 4 mars 2023 elle se voit décerner le prix international de la femme de courage.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Formation sur les droits des femmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volha Harbunova travaille pendant 18 ans pour l'organisation non gouvernementale Radislava, une organisation créée en 2002 par et pour les survivantes de la violence contre les femmes, en tant que psychologue et dirigeante de l'organisation[2]. Elle forme des fonctionnaires de police et des fonctionnaires des administrations de l'aide sociale et des soins de santé à l'aide aux victimes de la violence familiale[3].
-Elle introduit la campagne One Billion Rising (en) en Biélorussie en 2016[2]. Elle créé Norma Cafe, une entreprise sociale et un centre culturel pour la formation et l'emploi des femmes[2]. Son activisme comprend aussi le soutien à la communauté LGBT[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volha Harbunova travaille pendant 18 ans pour l'organisation non gouvernementale Radislava, une organisation créée en 2002 par et pour les survivantes de la violence contre les femmes, en tant que psychologue et dirigeante de l'organisation. Elle forme des fonctionnaires de police et des fonctionnaires des administrations de l'aide sociale et des soins de santé à l'aide aux victimes de la violence familiale.
+Elle introduit la campagne One Billion Rising (en) en Biélorussie en 2016. Elle créé Norma Cafe, une entreprise sociale et un centre culturel pour la formation et l'emploi des femmes. Son activisme comprend aussi le soutien à la communauté LGBT.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, Volha Harbunova reçoit le prix de Front Line Defenders pour les défenseurs des droits humains en danger. L'annonce du prix est retardée jusqu'en décembre 2022 pour des raisons de sécurité, car Volha Harbunova se trouvait toujours en Biélorussie lors de la cérémonie habituelle de remise du prix, le 27 mai 2022. Le prix lui est officiellement remis le 9 décembre à Vilnius. Andrew Anderson de Front Line Defenders décrit le prix comme une reconnaissance de Volha Harbunova pour « ses efforts de longue date dans la lutte pour les droits humains des femmes et des enfants en Biélorussie »[4].
-Le 4 mars 2024, elle est reconnue comme femme de courage par le département d'État américain[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, Volha Harbunova reçoit le prix de Front Line Defenders pour les défenseurs des droits humains en danger. L'annonce du prix est retardée jusqu'en décembre 2022 pour des raisons de sécurité, car Volha Harbunova se trouvait toujours en Biélorussie lors de la cérémonie habituelle de remise du prix, le 27 mai 2022. Le prix lui est officiellement remis le 9 décembre à Vilnius. Andrew Anderson de Front Line Defenders décrit le prix comme une reconnaissance de Volha Harbunova pour « ses efforts de longue date dans la lutte pour les droits humains des femmes et des enfants en Biélorussie ».
+Le 4 mars 2024, elle est reconnue comme femme de courage par le département d'État américain.
 </t>
         </is>
       </c>
